--- a/Risk/Risklist.xlsx
+++ b/Risk/Risklist.xlsx
@@ -30,9 +30,6 @@
     <t>Schadensminderungsstrategie</t>
   </si>
   <si>
-    <t>Risikofaktor</t>
-  </si>
-  <si>
     <t>Verantwortlicher</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>4: keine Lauffähige Version möglich</t>
+  </si>
+  <si>
+    <t>Riscfactor</t>
   </si>
 </sst>
 </file>
@@ -149,18 +149,12 @@
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -178,6 +172,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -185,6 +182,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -481,155 +481,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="2.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="34" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
+        <f t="shared" ref="F2" si="0">C2*D2</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="21" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4" si="1">C4*D4</f>
+        <v>0.9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="30">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2">
-        <f t="shared" ref="F2:F6" si="0">C2*D2</f>
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="7"/>
-      <c r="B3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" ht="21" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2">
-        <f t="shared" ref="F4:F7" si="1">C4*D4</f>
-        <v>0.9</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="7"/>
-      <c r="B5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <f>C6*D6</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13" t="s">
-        <v>9</v>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="150">
-      <c r="B9" s="4" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" ht="60">
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="30">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -641,7 +643,7 @@
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
